--- a/raw_data/20200818_saline/20200818_Sensor0_Test_82.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_82.xlsx
@@ -1,993 +1,1409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4676DB46-E90D-4D5F-82C2-F1C44D55F6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>72902.910786</v>
+        <v>72902.910785999993</v>
       </c>
       <c r="B2" s="1">
         <v>20.250809</v>
       </c>
       <c r="C2" s="1">
-        <v>903.337000</v>
+        <v>903.33699999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-189.312000</v>
+        <v>-189.31200000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>72913.316852</v>
+        <v>72913.316852000004</v>
       </c>
       <c r="G2" s="1">
-        <v>20.253699</v>
+        <v>20.253699000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>919.452000</v>
+        <v>919.452</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.267000</v>
+        <v>-161.267</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>72924.133108</v>
+        <v>72924.133107999995</v>
       </c>
       <c r="L2" s="1">
-        <v>20.256704</v>
+        <v>20.256703999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>941.292000</v>
+        <v>941.29200000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.033000</v>
+        <v>-117.033</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>72934.630768</v>
+        <v>72934.630768000003</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.259620</v>
+        <v>20.259620000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>948.164000</v>
+        <v>948.16399999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.582000</v>
+        <v>-102.58199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>72945.015178</v>
+        <v>72945.015178000001</v>
       </c>
       <c r="V2" s="1">
         <v>20.262504</v>
       </c>
       <c r="W2" s="1">
-        <v>955.082000</v>
+        <v>955.08199999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.663200</v>
+        <v>-89.663200000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>72955.444555</v>
+        <v>72955.444554999995</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.265401</v>
+        <v>20.265401000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>962.792000</v>
+        <v>962.79200000000003</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.363400</v>
+        <v>-80.363399999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>72965.676562</v>
+        <v>72965.676561999993</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.268243</v>
+        <v>20.268242999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.053000</v>
+        <v>968.053</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.852700</v>
+        <v>-79.852699999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>72976.144624</v>
+        <v>72976.144623999993</v>
       </c>
       <c r="AK2" s="1">
         <v>20.271151</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.161000</v>
+        <v>976.16099999999994</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.614900</v>
+        <v>-87.614900000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>72986.414754</v>
+        <v>72986.414753999998</v>
       </c>
       <c r="AP2" s="1">
-        <v>20.274004</v>
+        <v>20.274004000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>985.492000</v>
+        <v>985.49199999999996</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.357000</v>
+        <v>-102.357</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>72997.384804</v>
+        <v>72997.384804000001</v>
       </c>
       <c r="AU2" s="1">
         <v>20.277051</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.986000</v>
+        <v>996.98599999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.648000</v>
+        <v>-123.648</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>73008.238261</v>
+        <v>73008.238261000006</v>
       </c>
       <c r="AZ2" s="1">
-        <v>20.280066</v>
+        <v>20.280066000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.185000</v>
+        <v>-142.185</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>73019.165094</v>
+        <v>73019.165093999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>20.283101</v>
+        <v>20.283100999999998</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-225.948000</v>
+        <v>-225.94800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>73030.178794</v>
+        <v>73030.178794000007</v>
       </c>
       <c r="BJ2" s="1">
         <v>20.286161</v>
       </c>
       <c r="BK2" s="1">
-        <v>1131.610000</v>
+        <v>1131.6099999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.804000</v>
+        <v>-359.80399999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>73041.577855</v>
+        <v>73041.577854999996</v>
       </c>
       <c r="BO2" s="1">
         <v>20.289327</v>
       </c>
       <c r="BP2" s="1">
-        <v>1262.460000</v>
+        <v>1262.46</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-565.952000</v>
+        <v>-565.952</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>73052.740319</v>
+        <v>73052.740319000004</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.292428</v>
+        <v>20.292428000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1408.890000</v>
+        <v>1408.89</v>
       </c>
       <c r="BV2" s="1">
-        <v>-785.200000</v>
+        <v>-785.2</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>73064.221189</v>
+        <v>73064.221189000004</v>
       </c>
       <c r="BY2" s="1">
         <v>20.295617</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1568.520000</v>
+        <v>1568.52</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1014.090000</v>
+        <v>-1014.09</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>73075.160445</v>
+        <v>73075.160445000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.298656</v>
+        <v>20.298656000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1969.060000</v>
+        <v>1969.06</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1548.950000</v>
+        <v>-1548.95</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>72903.272897</v>
+        <v>72903.272897000003</v>
       </c>
       <c r="B3" s="1">
         <v>20.250909</v>
       </c>
       <c r="C3" s="1">
-        <v>903.150000</v>
+        <v>903.15</v>
       </c>
       <c r="D3" s="1">
-        <v>-189.383000</v>
+        <v>-189.38300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>72914.015218</v>
       </c>
       <c r="G3" s="1">
-        <v>20.253893</v>
+        <v>20.253893000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>919.234000</v>
+        <v>919.23400000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-161.032000</v>
+        <v>-161.03200000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>72924.538340</v>
+        <v>72924.538339999999</v>
       </c>
       <c r="L3" s="1">
-        <v>20.256816</v>
+        <v>20.256816000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>941.231000</v>
+        <v>941.23099999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-116.980000</v>
+        <v>-116.98</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>72935.055047</v>
+        <v>72935.055047000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.259738</v>
+        <v>20.259737999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.173000</v>
+        <v>948.173</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.530000</v>
+        <v>-102.53</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>72945.360393</v>
+        <v>72945.360392999995</v>
       </c>
       <c r="V3" s="1">
-        <v>20.262600</v>
+        <v>20.262599999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>955.040000</v>
+        <v>955.04</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.626100</v>
+        <v>-89.626099999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>72955.817100</v>
+        <v>72955.8171</v>
       </c>
       <c r="AA3" s="1">
-        <v>20.265505</v>
+        <v>20.265505000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>962.837000</v>
+        <v>962.83699999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.334600</v>
+        <v>-80.334599999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>72966.057989</v>
+        <v>72966.057988999994</v>
       </c>
       <c r="AF3" s="1">
-        <v>20.268349</v>
+        <v>20.268349000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>967.818000</v>
+        <v>967.81799999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.948900</v>
+        <v>-79.948899999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>72976.565732</v>
+        <v>72976.565732000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.271268</v>
+        <v>20.271267999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.178000</v>
+        <v>976.178</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.598400</v>
+        <v>-87.598399999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>72986.874546</v>
+        <v>72986.874546000006</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.274132</v>
+        <v>20.274132000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>985.502000</v>
+        <v>985.50199999999995</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.337000</v>
+        <v>-102.337</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>72997.497896</v>
+        <v>72997.497896000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.277083</v>
+        <v>20.277083000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.010000</v>
+        <v>997.01</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.650000</v>
+        <v>-123.65</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>73008.600842</v>
       </c>
       <c r="AZ3" s="1">
-        <v>20.280167</v>
+        <v>20.280166999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1006.670000</v>
+        <v>1006.67</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.186000</v>
+        <v>-142.18600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>73019.528203</v>
+        <v>73019.528202999994</v>
       </c>
       <c r="BE3" s="1">
-        <v>20.283202</v>
+        <v>20.283201999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-225.962000</v>
+        <v>-225.96199999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>73030.556218</v>
+        <v>73030.556217999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.286266</v>
+        <v>20.286266000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1131.600000</v>
+        <v>1131.5999999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.836000</v>
+        <v>-359.83600000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>73042.403742</v>
+        <v>73042.403741999995</v>
       </c>
       <c r="BO3" s="1">
-        <v>20.289557</v>
+        <v>20.289556999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1262.450000</v>
+        <v>1262.45</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-565.981000</v>
+        <v>-565.98099999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>73053.625147</v>
+        <v>73053.625146999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>20.292674</v>
+        <v>20.292674000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.950000</v>
+        <v>1408.95</v>
       </c>
       <c r="BV3" s="1">
-        <v>-785.261000</v>
+        <v>-785.26099999999997</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>73064.689403</v>
+        <v>73064.689402999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>20.295747</v>
+        <v>20.295746999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1568.640000</v>
+        <v>1568.64</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1014.190000</v>
+        <v>-1014.19</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>73075.725884</v>
+        <v>73075.725883999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.298813</v>
+        <v>20.298812999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1968.990000</v>
+        <v>1968.99</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1548.550000</v>
+        <v>-1548.55</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>72903.930559</v>
       </c>
@@ -995,3671 +1411,3671 @@
         <v>20.251092</v>
       </c>
       <c r="C4" s="1">
-        <v>903.382000</v>
+        <v>903.38199999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-189.260000</v>
+        <v>-189.26</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>72914.389201</v>
+        <v>72914.389200999998</v>
       </c>
       <c r="G4" s="1">
-        <v>20.253997</v>
+        <v>20.253996999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>919.068000</v>
+        <v>919.06799999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-161.577000</v>
+        <v>-161.577</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>72924.882565</v>
+        <v>72924.882565000007</v>
       </c>
       <c r="L4" s="1">
         <v>20.256912</v>
       </c>
       <c r="M4" s="1">
-        <v>941.403000</v>
+        <v>941.40300000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.049000</v>
+        <v>-117.04900000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>72935.404197</v>
+        <v>72935.404196999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.259834</v>
+        <v>20.259834000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>948.165000</v>
+        <v>948.16499999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.572000</v>
+        <v>-102.572</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>72945.709080</v>
+        <v>72945.709080000001</v>
       </c>
       <c r="V4" s="1">
-        <v>20.262697</v>
+        <v>20.262696999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>955.161000</v>
+        <v>955.16099999999994</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.642900</v>
+        <v>-89.642899999999997</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>72956.253530</v>
+        <v>72956.253530000002</v>
       </c>
       <c r="AA4" s="1">
-        <v>20.265626</v>
+        <v>20.265626000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>962.777000</v>
+        <v>962.77700000000004</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.374200</v>
+        <v>-80.374200000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>72966.482568</v>
+        <v>72966.482568000007</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.268467</v>
+        <v>20.268467000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.005000</v>
+        <v>968.005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.940000</v>
+        <v>-79.94</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>72976.906975</v>
+        <v>72976.906975000005</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.271363</v>
+        <v>20.271363000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.183000</v>
+        <v>976.18299999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.592700</v>
+        <v>-87.592699999999994</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>72987.173633</v>
+        <v>72987.173632999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>20.274215</v>
+        <v>20.274215000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>985.510000</v>
+        <v>985.51</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.346000</v>
+        <v>-102.346</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>72997.850547</v>
+        <v>72997.850546999995</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.277181</v>
+        <v>20.277180999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.990000</v>
+        <v>996.99</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.656000</v>
+        <v>-123.65600000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>73008.959413</v>
+        <v>73008.959413000004</v>
       </c>
       <c r="AZ4" s="1">
-        <v>20.280267</v>
+        <v>20.280266999999998</v>
       </c>
       <c r="BA4" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.186000</v>
+        <v>-142.18600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>73019.889254</v>
+        <v>73019.889253999994</v>
       </c>
       <c r="BE4" s="1">
         <v>20.283303</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-225.967000</v>
+        <v>-225.96700000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>73031.309143</v>
+        <v>73031.309143000006</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.286475</v>
+        <v>20.286474999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1131.680000</v>
+        <v>1131.68</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.832000</v>
+        <v>-359.83199999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>73042.819335</v>
+        <v>73042.819334999993</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.289672</v>
+        <v>20.289671999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1262.470000</v>
+        <v>1262.47</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-566.041000</v>
+        <v>-566.04100000000005</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>73054.056169</v>
+        <v>73054.056169000003</v>
       </c>
       <c r="BT4" s="1">
         <v>20.292793</v>
       </c>
       <c r="BU4" s="1">
-        <v>1408.890000</v>
+        <v>1408.89</v>
       </c>
       <c r="BV4" s="1">
-        <v>-785.243000</v>
+        <v>-785.24300000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>73065.133354</v>
+        <v>73065.133354000005</v>
       </c>
       <c r="BY4" s="1">
-        <v>20.295870</v>
+        <v>20.295870000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1568.500000</v>
+        <v>1568.5</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1014.140000</v>
+        <v>-1014.14</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>73076.566108</v>
+        <v>73076.566107999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>20.299046</v>
+        <v>20.299046000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1970.310000</v>
+        <v>1970.31</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1548.780000</v>
+        <v>-1548.78</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>72904.299583</v>
       </c>
       <c r="B5" s="1">
-        <v>20.251194</v>
+        <v>20.251194000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>903.388000</v>
+        <v>903.38800000000003</v>
       </c>
       <c r="D5" s="1">
-        <v>-189.202000</v>
+        <v>-189.202</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>72914.730945</v>
+        <v>72914.730945000003</v>
       </c>
       <c r="G5" s="1">
         <v>20.254092</v>
       </c>
       <c r="H5" s="1">
-        <v>919.277000</v>
+        <v>919.27700000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-160.999000</v>
+        <v>-160.999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>72925.225828</v>
+        <v>72925.225827999995</v>
       </c>
       <c r="L5" s="1">
-        <v>20.257007</v>
+        <v>20.257007000000002</v>
       </c>
       <c r="M5" s="1">
-        <v>941.405000</v>
+        <v>941.40499999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.086000</v>
+        <v>-117.086</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>72935.752885</v>
+        <v>72935.752884999994</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.259931</v>
+        <v>20.259931000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>948.177000</v>
+        <v>948.17700000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.563000</v>
+        <v>-102.563</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>72946.140136</v>
+        <v>72946.140136000002</v>
       </c>
       <c r="V5" s="1">
-        <v>20.262817</v>
+        <v>20.262816999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>955.125000</v>
+        <v>955.125</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.678600</v>
+        <v>-89.678600000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>72956.519882</v>
+        <v>72956.519881999993</v>
       </c>
       <c r="AA5" s="1">
-        <v>20.265700</v>
+        <v>20.265699999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>962.800000</v>
+        <v>962.8</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.316200</v>
+        <v>-80.316199999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>72966.742957</v>
+        <v>72966.742956999995</v>
       </c>
       <c r="AF5" s="1">
-        <v>20.268540</v>
+        <v>20.268540000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>967.954000</v>
+        <v>967.95399999999995</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.942700</v>
+        <v>-79.942700000000002</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>72977.257118</v>
+        <v>72977.257117999994</v>
       </c>
       <c r="AK5" s="1">
-        <v>20.271460</v>
+        <v>20.271460000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.177000</v>
+        <v>976.17700000000002</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.588800</v>
+        <v>-87.588800000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>72987.534722</v>
+        <v>72987.534721999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>20.274315</v>
+        <v>20.274315000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>985.504000</v>
+        <v>985.50400000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.338000</v>
+        <v>-102.33799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>72998.211603</v>
+        <v>72998.211603000003</v>
       </c>
       <c r="AU5" s="1">
-        <v>20.277281</v>
+        <v>20.277280999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.972000</v>
+        <v>996.97199999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.649000</v>
+        <v>-123.649</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>73009.680131</v>
+        <v>73009.680131000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.280467</v>
+        <v>20.280467000000002</v>
       </c>
       <c r="BA5" s="1">
-        <v>1006.670000</v>
+        <v>1006.67</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.179000</v>
+        <v>-142.179</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>73020.609941</v>
+        <v>73020.609941000002</v>
       </c>
       <c r="BE5" s="1">
         <v>20.283503</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-225.960000</v>
+        <v>-225.96</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>73031.685112</v>
+        <v>73031.685112000006</v>
       </c>
       <c r="BJ5" s="1">
         <v>20.286579</v>
       </c>
       <c r="BK5" s="1">
-        <v>1131.580000</v>
+        <v>1131.58</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.892000</v>
+        <v>-359.892</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>73043.218583</v>
+        <v>73043.218582999994</v>
       </c>
       <c r="BO5" s="1">
         <v>20.289783</v>
       </c>
       <c r="BP5" s="1">
-        <v>1262.470000</v>
+        <v>1262.47</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-565.984000</v>
+        <v>-565.98400000000004</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>73054.773880</v>
+        <v>73054.773879999993</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.292993</v>
+        <v>20.292992999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.900000</v>
+        <v>1408.9</v>
       </c>
       <c r="BV5" s="1">
-        <v>-785.286000</v>
+        <v>-785.28599999999994</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>73065.881290</v>
+        <v>73065.881290000005</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.296078</v>
+        <v>20.296078000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1568.550000</v>
+        <v>1568.55</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1014.160000</v>
+        <v>-1014.16</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>73076.798267</v>
+        <v>73076.798267000006</v>
       </c>
       <c r="CD5" s="1">
         <v>20.299111</v>
       </c>
       <c r="CE5" s="1">
-        <v>1970.040000</v>
+        <v>1970.04</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1547.090000</v>
+        <v>-1547.09</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>72904.641328</v>
+        <v>72904.641327999998</v>
       </c>
       <c r="B6" s="1">
         <v>20.251289</v>
       </c>
       <c r="C6" s="1">
-        <v>903.467000</v>
+        <v>903.46699999999998</v>
       </c>
       <c r="D6" s="1">
-        <v>-189.270000</v>
+        <v>-189.27</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>72915.074674</v>
+        <v>72915.074674000003</v>
       </c>
       <c r="G6" s="1">
-        <v>20.254187</v>
+        <v>20.254187000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>919.272000</v>
+        <v>919.27200000000005</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.365000</v>
+        <v>-161.36500000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>72925.655331</v>
+        <v>72925.655331000002</v>
       </c>
       <c r="L6" s="1">
         <v>20.257126</v>
       </c>
       <c r="M6" s="1">
-        <v>941.360000</v>
+        <v>941.36</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.160000</v>
+        <v>-117.16</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>72936.189364</v>
+        <v>72936.189364000005</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.260053</v>
+        <v>20.260052999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>948.162000</v>
+        <v>948.16200000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.591000</v>
+        <v>-102.59099999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>72946.409959</v>
+        <v>72946.409958999997</v>
       </c>
       <c r="V6" s="1">
-        <v>20.262892</v>
+        <v>20.262892000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>955.114000</v>
+        <v>955.11400000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.591800</v>
+        <v>-89.591800000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>72956.868073</v>
+        <v>72956.868073000005</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.265797</v>
+        <v>20.265796999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>962.778000</v>
+        <v>962.77800000000002</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.311800</v>
+        <v>-80.311800000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>72967.086157</v>
+        <v>72967.086156999998</v>
       </c>
       <c r="AF6" s="1">
         <v>20.268635</v>
       </c>
       <c r="AG6" s="1">
-        <v>967.919000</v>
+        <v>967.91899999999998</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.013600</v>
+        <v>-80.013599999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>72977.608297</v>
+        <v>72977.608296999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.271558</v>
+        <v>20.271557999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.167000</v>
+        <v>976.16700000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.579200</v>
+        <v>-87.5792</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>72988.255408</v>
+        <v>72988.255407999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.274515</v>
+        <v>20.274515000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>985.503000</v>
+        <v>985.50300000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.331000</v>
+        <v>-102.331</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>72998.946674</v>
+        <v>72998.946674000006</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.277485</v>
+        <v>20.277484999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.981000</v>
+        <v>996.98099999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.632000</v>
+        <v>-123.63200000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>73010.055571</v>
+        <v>73010.055571000004</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.280571</v>
+        <v>20.280570999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.177000</v>
+        <v>-142.17699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>73020.971524</v>
+        <v>73020.971523999993</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.283603</v>
+        <v>20.283602999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-225.953000</v>
+        <v>-225.953</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>73032.060086</v>
+        <v>73032.060085999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>20.286683</v>
       </c>
       <c r="BK6" s="1">
-        <v>1131.620000</v>
+        <v>1131.6199999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.804000</v>
+        <v>-359.80399999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>73043.966054</v>
+        <v>73043.966054000004</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.289991</v>
+        <v>20.289991000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1262.450000</v>
+        <v>1262.45</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-565.990000</v>
+        <v>-565.99</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>73054.887961</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.293024</v>
+        <v>20.293023999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.880000</v>
+        <v>1408.88</v>
       </c>
       <c r="BV6" s="1">
-        <v>-785.241000</v>
+        <v>-785.24099999999999</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>73066.001358</v>
+        <v>73066.001357999994</v>
       </c>
       <c r="BY6" s="1">
         <v>20.296111</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1568.500000</v>
+        <v>1568.5</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1014.270000</v>
+        <v>-1014.27</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>73077.331931</v>
+        <v>73077.331930999993</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.299259</v>
+        <v>20.299258999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1968.870000</v>
+        <v>1968.87</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1548.650000</v>
+        <v>-1548.65</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>72905.001918</v>
+        <v>72905.001917999994</v>
       </c>
       <c r="B7" s="1">
         <v>20.251389</v>
       </c>
       <c r="C7" s="1">
-        <v>903.391000</v>
+        <v>903.39099999999996</v>
       </c>
       <c r="D7" s="1">
-        <v>-189.308000</v>
+        <v>-189.30799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>72915.504704</v>
+        <v>72915.504704000006</v>
       </c>
       <c r="G7" s="1">
-        <v>20.254307</v>
+        <v>20.254307000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>919.529000</v>
+        <v>919.529</v>
       </c>
       <c r="I7" s="1">
-        <v>-161.196000</v>
+        <v>-161.196</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>72925.920690</v>
+        <v>72925.920689999999</v>
       </c>
       <c r="L7" s="1">
-        <v>20.257200</v>
+        <v>20.257200000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>941.442000</v>
+        <v>941.44200000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.057000</v>
+        <v>-117.057</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>72936.457700</v>
+        <v>72936.457699999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>20.260127</v>
+        <v>20.260127000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>948.168000</v>
+        <v>948.16800000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.586000</v>
+        <v>-102.586</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>72946.754152</v>
+        <v>72946.754151999994</v>
       </c>
       <c r="V7" s="1">
-        <v>20.262987</v>
+        <v>20.262986999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>955.094000</v>
+        <v>955.09400000000005</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.553700</v>
+        <v>-89.553700000000006</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>72957.216761</v>
+        <v>72957.216761000003</v>
       </c>
       <c r="AA7" s="1">
-        <v>20.265894</v>
+        <v>20.265893999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>962.804000</v>
+        <v>962.80399999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.351600</v>
+        <v>-80.351600000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>72967.429883</v>
+        <v>72967.429883000004</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.268731</v>
+        <v>20.268730999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>967.981000</v>
+        <v>967.98099999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.886000</v>
+        <v>-79.885999999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>72978.303677</v>
+        <v>72978.303677000004</v>
       </c>
       <c r="AK7" s="1">
-        <v>20.271751</v>
+        <v>20.271750999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.187000</v>
+        <v>976.18700000000001</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.608500</v>
+        <v>-87.608500000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>72988.617487</v>
+        <v>72988.617486999996</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.274616</v>
+        <v>20.274616000000002</v>
       </c>
       <c r="AQ7" s="1">
-        <v>985.504000</v>
+        <v>985.50400000000002</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.325000</v>
+        <v>-102.325</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>72999.331569</v>
+        <v>72999.331569000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.277592</v>
+        <v>20.277591999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.019000</v>
+        <v>997.01900000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.643000</v>
+        <v>-123.643</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>73010.437523</v>
+        <v>73010.437523000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.280677</v>
+        <v>20.280677000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.173000</v>
+        <v>-142.173</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>73021.651539</v>
+        <v>73021.651538999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.283792</v>
+        <v>20.283791999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-225.954000</v>
+        <v>-225.95400000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>73032.752039</v>
+        <v>73032.752038999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.286876</v>
+        <v>20.286875999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1131.590000</v>
+        <v>1131.5899999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.860000</v>
+        <v>-359.86</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>73044.466517</v>
+        <v>73044.466516999993</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.290130</v>
+        <v>20.290130000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1262.450000</v>
+        <v>1262.45</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-565.965000</v>
+        <v>-565.96500000000003</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>73055.323943</v>
+        <v>73055.323942999996</v>
       </c>
       <c r="BT7" s="1">
         <v>20.293146</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.870000</v>
+        <v>1408.87</v>
       </c>
       <c r="BV7" s="1">
-        <v>-785.270000</v>
+        <v>-785.27</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>73066.426430</v>
+        <v>73066.426430000007</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.296230</v>
+        <v>20.296230000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1568.530000</v>
+        <v>1568.53</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1014.260000</v>
+        <v>-1014.26</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>73077.868105</v>
+        <v>73077.868105000001</v>
       </c>
       <c r="CD7" s="1">
         <v>20.299408</v>
       </c>
       <c r="CE7" s="1">
-        <v>1970.960000</v>
+        <v>1970.96</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1548.100000</v>
+        <v>-1548.1</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>72905.467661</v>
+        <v>72905.467661000002</v>
       </c>
       <c r="B8" s="1">
-        <v>20.251519</v>
+        <v>20.251518999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>903.275000</v>
+        <v>903.27499999999998</v>
       </c>
       <c r="D8" s="1">
-        <v>-189.294000</v>
+        <v>-189.29400000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>72915.790400</v>
+        <v>72915.790399999998</v>
       </c>
       <c r="G8" s="1">
         <v>20.254386</v>
       </c>
       <c r="H8" s="1">
-        <v>919.358000</v>
+        <v>919.35799999999995</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.433000</v>
+        <v>-161.43299999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>72926.266899</v>
+        <v>72926.266898999995</v>
       </c>
       <c r="L8" s="1">
         <v>20.257296</v>
       </c>
       <c r="M8" s="1">
-        <v>941.521000</v>
+        <v>941.52099999999996</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.163000</v>
+        <v>-117.163</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>72936.804437</v>
+        <v>72936.804436999999</v>
       </c>
       <c r="Q8" s="1">
         <v>20.260223</v>
       </c>
       <c r="R8" s="1">
-        <v>948.142000</v>
+        <v>948.14200000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.569000</v>
+        <v>-102.569</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>72947.099864</v>
+        <v>72947.099864000003</v>
       </c>
       <c r="V8" s="1">
-        <v>20.263083</v>
+        <v>20.263083000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>955.125000</v>
+        <v>955.125</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.503100</v>
+        <v>-89.503100000000003</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>72957.913144</v>
+        <v>72957.913144000006</v>
       </c>
       <c r="AA8" s="1">
-        <v>20.266087</v>
+        <v>20.266086999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>962.755000</v>
+        <v>962.755</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.330600</v>
+        <v>-80.330600000000004</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>72968.118363</v>
+        <v>72968.118363000001</v>
       </c>
       <c r="AF8" s="1">
         <v>20.268922</v>
       </c>
       <c r="AG8" s="1">
-        <v>967.954000</v>
+        <v>967.95399999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.038200</v>
+        <v>-80.038200000000003</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>72978.653389</v>
+        <v>72978.653388999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>20.271848</v>
+        <v>20.271847999999999</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.184000</v>
+        <v>976.18399999999997</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.577100</v>
+        <v>-87.577100000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>72988.976591</v>
+        <v>72988.976590999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.274716</v>
+        <v>20.274716000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>985.493000</v>
+        <v>985.49300000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.347000</v>
+        <v>-102.34699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>72999.695632</v>
+        <v>72999.695632000003</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.277693</v>
+        <v>20.277692999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.998000</v>
+        <v>996.99800000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.626000</v>
+        <v>-123.626</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>73011.116017</v>
+        <v>73011.116016999993</v>
       </c>
       <c r="AZ8" s="1">
         <v>20.280866</v>
       </c>
       <c r="BA8" s="1">
-        <v>1006.660000</v>
+        <v>1006.66</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.182000</v>
+        <v>-142.18199999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>73022.063220</v>
+        <v>73022.063219999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>20.283906</v>
+        <v>20.283906000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-225.980000</v>
+        <v>-225.98</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>73033.185508</v>
+        <v>73033.185507999995</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.286996</v>
+        <v>20.286995999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1131.660000</v>
+        <v>1131.6600000000001</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.862000</v>
+        <v>-359.86200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>73044.877205</v>
+        <v>73044.877204999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.290244</v>
+        <v>20.290244000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1262.450000</v>
+        <v>1262.45</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-565.991000</v>
+        <v>-565.99099999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>73055.753974</v>
+        <v>73055.753974000007</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.293265</v>
+        <v>20.293265000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.930000</v>
+        <v>1408.93</v>
       </c>
       <c r="BV8" s="1">
-        <v>-785.270000</v>
+        <v>-785.27</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>73066.850968</v>
+        <v>73066.850967999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.296347</v>
+        <v>20.296347000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1568.500000</v>
+        <v>1568.5</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1014.280000</v>
+        <v>-1014.28</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>73078.411228</v>
+        <v>73078.411227999997</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.299559</v>
+        <v>20.299558999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1968.910000</v>
+        <v>1968.91</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1547.440000</v>
+        <v>-1547.44</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>72905.703299</v>
+        <v>72905.703299000001</v>
       </c>
       <c r="B9" s="1">
-        <v>20.251584</v>
+        <v>20.251584000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>903.372000</v>
+        <v>903.37199999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-189.288000</v>
+        <v>-189.28800000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>72916.137103</v>
+        <v>72916.137103000001</v>
       </c>
       <c r="G9" s="1">
         <v>20.254483</v>
       </c>
       <c r="H9" s="1">
-        <v>919.543000</v>
+        <v>919.54300000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-161.335000</v>
+        <v>-161.33500000000001</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>72926.613105</v>
+        <v>72926.613104999997</v>
       </c>
       <c r="L9" s="1">
         <v>20.257393</v>
       </c>
       <c r="M9" s="1">
-        <v>941.377000</v>
+        <v>941.37699999999995</v>
       </c>
       <c r="N9" s="1">
-        <v>-116.899000</v>
+        <v>-116.899</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>72937.158051</v>
+        <v>72937.158051000006</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.260322</v>
+        <v>20.260321999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.143000</v>
+        <v>948.14300000000003</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.564000</v>
+        <v>-102.56399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>72947.784343</v>
+        <v>72947.784343000007</v>
       </c>
       <c r="V9" s="1">
-        <v>20.263273</v>
+        <v>20.263273000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>955.127000</v>
+        <v>955.12699999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.593000</v>
+        <v>-89.593000000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>72958.264808</v>
+        <v>72958.264808000007</v>
       </c>
       <c r="AA9" s="1">
         <v>20.266185</v>
       </c>
       <c r="AB9" s="1">
-        <v>962.720000</v>
+        <v>962.72</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.314400</v>
+        <v>-80.314400000000006</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>72968.460074</v>
+        <v>72968.460074000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>20.269017</v>
+        <v>20.269017000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>967.760000</v>
+        <v>967.76</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.945200</v>
+        <v>-79.9452</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>72979.001053</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.271945</v>
+        <v>20.271944999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.167000</v>
+        <v>976.16700000000003</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.604500</v>
+        <v>-87.604500000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>72989.654127</v>
+        <v>72989.654127000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.274904</v>
+        <v>20.274903999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>985.506000</v>
+        <v>985.50599999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.341000</v>
+        <v>-102.34099999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>73000.368207</v>
+        <v>73000.368207000007</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.277880</v>
+        <v>20.27788</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.982000</v>
+        <v>996.98199999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.623000</v>
+        <v>-123.623</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>73011.518801</v>
+        <v>73011.518800999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>20.280977</v>
       </c>
       <c r="BA9" s="1">
-        <v>1006.690000</v>
+        <v>1006.69</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.191000</v>
+        <v>-142.191</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>73022.462002</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.284017</v>
+        <v>20.284016999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-225.977000</v>
+        <v>-225.977</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>73033.559493</v>
+        <v>73033.559492999993</v>
       </c>
       <c r="BJ9" s="1">
-        <v>20.287100</v>
+        <v>20.287099999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1131.620000</v>
+        <v>1131.6199999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.891000</v>
+        <v>-359.89100000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>73045.273012</v>
+        <v>73045.273012000005</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.290354</v>
+        <v>20.290354000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1262.440000</v>
+        <v>1262.44</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-565.990000</v>
+        <v>-565.99</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>73056.178085</v>
+        <v>73056.178085000007</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.293383</v>
+        <v>20.293382999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.890000</v>
+        <v>1408.89</v>
       </c>
       <c r="BV9" s="1">
-        <v>-785.255000</v>
+        <v>-785.255</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>73067.288935</v>
+        <v>73067.288935000004</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.296469</v>
+        <v>20.296468999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1568.630000</v>
+        <v>1568.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1014.240000</v>
+        <v>-1014.24</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>73078.950385</v>
+        <v>73078.950385000004</v>
       </c>
       <c r="CD9" s="1">
-        <v>20.299708</v>
+        <v>20.299707999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>1969.630000</v>
+        <v>1969.63</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1549.020000</v>
+        <v>-1549.02</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>72906.046036</v>
       </c>
       <c r="B10" s="1">
-        <v>20.251679</v>
+        <v>20.251678999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>903.273000</v>
+        <v>903.27300000000002</v>
       </c>
       <c r="D10" s="1">
-        <v>-189.266000</v>
+        <v>-189.26599999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>72916.478350</v>
+        <v>72916.478350000005</v>
       </c>
       <c r="G10" s="1">
-        <v>20.254577</v>
+        <v>20.254577000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>919.377000</v>
+        <v>919.37699999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-161.621000</v>
+        <v>-161.62100000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>72927.304032</v>
       </c>
       <c r="L10" s="1">
-        <v>20.257584</v>
+        <v>20.257584000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>941.355000</v>
+        <v>941.35500000000002</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.094000</v>
+        <v>-117.09399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>72937.859890</v>
+        <v>72937.859890000007</v>
       </c>
       <c r="Q10" s="1">
         <v>20.260517</v>
       </c>
       <c r="R10" s="1">
-        <v>948.210000</v>
+        <v>948.21</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.574000</v>
+        <v>-102.574</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>72948.126581</v>
+        <v>72948.126581000004</v>
       </c>
       <c r="V10" s="1">
         <v>20.263368</v>
       </c>
       <c r="W10" s="1">
-        <v>955.159000</v>
+        <v>955.15899999999999</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.578900</v>
+        <v>-89.578900000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>72958.611015</v>
+        <v>72958.611015000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.266281</v>
+        <v>20.266280999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>962.814000</v>
+        <v>962.81399999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.321000</v>
+        <v>-80.320999999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>72968.809753</v>
+        <v>72968.809752999994</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.269114</v>
+        <v>20.269113999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>967.925000</v>
+        <v>967.92499999999995</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.023400</v>
+        <v>-80.023399999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>72979.670192</v>
+        <v>72979.670192000005</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.272131</v>
+        <v>20.272131000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.185000</v>
+        <v>976.18499999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.605700</v>
+        <v>-87.605699999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>72990.086141</v>
+        <v>72990.086141000007</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.275024</v>
+        <v>20.275023999999998</v>
       </c>
       <c r="AQ10" s="1">
-        <v>985.491000</v>
+        <v>985.49099999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.357000</v>
+        <v>-102.357</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>73000.824044</v>
+        <v>73000.824043999994</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.278007</v>
+        <v>20.278006999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.983000</v>
+        <v>996.98299999999995</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.644000</v>
+        <v>-123.64400000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>73011.895729</v>
+        <v>73011.895728999996</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.281082</v>
+        <v>20.281082000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.199000</v>
+        <v>-142.19900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>73022.824084</v>
+        <v>73022.824084000007</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.284118</v>
+        <v>20.284117999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-225.959000</v>
+        <v>-225.959</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>73033.938776</v>
+        <v>73033.938775999995</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.287205</v>
       </c>
       <c r="BK10" s="1">
-        <v>1131.620000</v>
+        <v>1131.6199999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.818000</v>
+        <v>-359.81799999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>73045.694643</v>
+        <v>73045.694642999995</v>
       </c>
       <c r="BO10" s="1">
         <v>20.290471</v>
       </c>
       <c r="BP10" s="1">
-        <v>1262.490000</v>
+        <v>1262.49</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-565.985000</v>
+        <v>-565.98500000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>73056.596678</v>
+        <v>73056.596678000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.293499</v>
+        <v>20.293499000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.840000</v>
+        <v>1408.84</v>
       </c>
       <c r="BV10" s="1">
-        <v>-785.212000</v>
+        <v>-785.21199999999999</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>73067.712518</v>
       </c>
       <c r="BY10" s="1">
-        <v>20.296587</v>
+        <v>20.296586999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1568.600000</v>
+        <v>1568.6</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1014.030000</v>
+        <v>-1014.03</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>73079.490055</v>
+        <v>73079.490055000002</v>
       </c>
       <c r="CD10" s="1">
         <v>20.299858</v>
       </c>
       <c r="CE10" s="1">
-        <v>1970.350000</v>
+        <v>1970.35</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1547.260000</v>
+        <v>-1547.26</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>72906.726508</v>
+        <v>72906.726508000007</v>
       </c>
       <c r="B11" s="1">
-        <v>20.251868</v>
+        <v>20.251868000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>903.147000</v>
+        <v>903.14700000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-189.353000</v>
+        <v>-189.35300000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>72917.171757</v>
+        <v>72917.171757000004</v>
       </c>
       <c r="G11" s="1">
-        <v>20.254770</v>
+        <v>20.254770000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>919.305000</v>
+        <v>919.30499999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.388000</v>
+        <v>-161.38800000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>72927.653729</v>
+        <v>72927.653728999998</v>
       </c>
       <c r="L11" s="1">
-        <v>20.257682</v>
+        <v>20.257681999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>941.420000</v>
+        <v>941.42</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.096000</v>
+        <v>-117.096</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>72938.235394</v>
+        <v>72938.235394000003</v>
       </c>
       <c r="Q11" s="1">
         <v>20.260621</v>
       </c>
       <c r="R11" s="1">
-        <v>948.186000</v>
+        <v>948.18600000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.578000</v>
+        <v>-102.578</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>72948.469316</v>
+        <v>72948.469316000002</v>
       </c>
       <c r="V11" s="1">
-        <v>20.263464</v>
+        <v>20.263463999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.095000</v>
+        <v>955.09500000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.600900</v>
+        <v>-89.600899999999996</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>72959.272678</v>
+        <v>72959.272677999994</v>
       </c>
       <c r="AA11" s="1">
         <v>20.266465</v>
       </c>
       <c r="AB11" s="1">
-        <v>962.717000</v>
+        <v>962.71699999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.367800</v>
+        <v>-80.367800000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>72969.472904</v>
+        <v>72969.472903999995</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.269298</v>
+        <v>20.269297999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.025000</v>
+        <v>968.02499999999998</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.985800</v>
+        <v>-79.985799999999998</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>72980.049098</v>
+        <v>72980.049098000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>20.272236</v>
+        <v>20.272235999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.163000</v>
+        <v>976.16300000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.610700</v>
+        <v>-87.610699999999994</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>72990.446733</v>
+        <v>72990.446733000004</v>
       </c>
       <c r="AP11" s="1">
-        <v>20.275124</v>
+        <v>20.275124000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>985.497000</v>
+        <v>985.49699999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.339000</v>
+        <v>-102.339</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>73001.180159</v>
+        <v>73001.180158999996</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.278106</v>
+        <v>20.278106000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.995000</v>
+        <v>996.995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.641000</v>
+        <v>-123.64100000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>73012.273821</v>
+        <v>73012.273820999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.281187</v>
+        <v>20.281186999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.188000</v>
+        <v>-142.18799999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>73023.254609</v>
+        <v>73023.254608999996</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.284237</v>
+        <v>20.284237000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-225.972000</v>
+        <v>-225.97200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>73034.367973</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.287324</v>
+        <v>20.287324000000002</v>
       </c>
       <c r="BK11" s="1">
-        <v>1131.630000</v>
+        <v>1131.6300000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.894000</v>
+        <v>-359.89400000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>73046.090423</v>
+        <v>73046.090423000001</v>
       </c>
       <c r="BO11" s="1">
         <v>20.290581</v>
       </c>
       <c r="BP11" s="1">
-        <v>1262.440000</v>
+        <v>1262.44</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-565.970000</v>
+        <v>-565.97</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>73057.026709</v>
+        <v>73057.026708999998</v>
       </c>
       <c r="BT11" s="1">
         <v>20.293619</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.810000</v>
+        <v>1408.81</v>
       </c>
       <c r="BV11" s="1">
-        <v>-785.213000</v>
+        <v>-785.21299999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>73068.134614</v>
+        <v>73068.134613999995</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.296704</v>
+        <v>20.296703999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1568.560000</v>
+        <v>1568.56</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1014.210000</v>
+        <v>-1014.21</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>73080.030166</v>
+        <v>73080.030165999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.300008</v>
+        <v>20.300007999999998</v>
       </c>
       <c r="CE11" s="1">
-        <v>1968.760000</v>
+        <v>1968.76</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1548.640000</v>
+        <v>-1548.64</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>72907.070763</v>
+        <v>72907.070762999996</v>
       </c>
       <c r="B12" s="1">
-        <v>20.251964</v>
+        <v>20.251964000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>903.318000</v>
+        <v>903.31799999999998</v>
       </c>
       <c r="D12" s="1">
-        <v>-189.415000</v>
+        <v>-189.41499999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>72917.514989</v>
+        <v>72917.514989000003</v>
       </c>
       <c r="G12" s="1">
-        <v>20.254865</v>
+        <v>20.254864999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>919.381000</v>
+        <v>919.38099999999997</v>
       </c>
       <c r="I12" s="1">
-        <v>-161.356000</v>
+        <v>-161.35599999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>72927.999951</v>
+        <v>72927.999951000005</v>
       </c>
       <c r="L12" s="1">
-        <v>20.257778</v>
+        <v>20.257777999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>941.253000</v>
+        <v>941.25300000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.101000</v>
+        <v>-117.101</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>72938.889089</v>
+        <v>72938.889089000004</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.260803</v>
+        <v>20.260802999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>948.172000</v>
+        <v>948.17200000000003</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.582000</v>
+        <v>-102.58199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>72949.138419</v>
+        <v>72949.138418999995</v>
       </c>
       <c r="V12" s="1">
-        <v>20.263650</v>
+        <v>20.263649999999998</v>
       </c>
       <c r="W12" s="1">
-        <v>955.113000</v>
+        <v>955.11300000000006</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.551300</v>
+        <v>-89.551299999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>72959.660583</v>
+        <v>72959.660583000004</v>
       </c>
       <c r="AA12" s="1">
         <v>20.266572</v>
       </c>
       <c r="AB12" s="1">
-        <v>962.794000</v>
+        <v>962.79399999999998</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.359800</v>
+        <v>-80.359800000000007</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>72969.837464</v>
+        <v>72969.837463999997</v>
       </c>
       <c r="AF12" s="1">
         <v>20.269399</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.061000</v>
+        <v>968.06100000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.893700</v>
+        <v>-79.893699999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>72980.397818</v>
+        <v>72980.397817999998</v>
       </c>
       <c r="AK12" s="1">
         <v>20.272333</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.164000</v>
+        <v>976.16399999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.612100</v>
+        <v>-87.612099999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>72990.800876</v>
+        <v>72990.800875999994</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.275222</v>
+        <v>20.275221999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>985.495000</v>
+        <v>985.495</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.328000</v>
+        <v>-102.328</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>73001.551167</v>
+        <v>73001.551166999998</v>
       </c>
       <c r="AU12" s="1">
         <v>20.278209</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.991000</v>
+        <v>996.99099999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.631000</v>
+        <v>-123.631</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>73012.709168</v>
+        <v>73012.709168000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.281308</v>
+        <v>20.281307999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.190000</v>
+        <v>-142.19</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>73023.540306</v>
+        <v>73023.540305999995</v>
       </c>
       <c r="BE12" s="1">
-        <v>20.284317</v>
+        <v>20.284317000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-225.965000</v>
+        <v>-225.965</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>73034.714211</v>
+        <v>73034.714210999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.287421</v>
+        <v>20.287420999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1131.610000</v>
+        <v>1131.6099999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.789000</v>
+        <v>-359.78899999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>73046.512515</v>
+        <v>73046.512514999995</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.290698</v>
+        <v>20.290697999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1262.470000</v>
+        <v>1262.47</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-565.996000</v>
+        <v>-565.99599999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>73057.438388</v>
+        <v>73057.438387999995</v>
       </c>
       <c r="BT12" s="1">
         <v>20.293733</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.850000</v>
+        <v>1408.85</v>
       </c>
       <c r="BV12" s="1">
-        <v>-785.261000</v>
+        <v>-785.26099999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>73068.585516</v>
+        <v>73068.585516000006</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.296829</v>
+        <v>20.296828999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1568.530000</v>
+        <v>1568.53</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1014.170000</v>
+        <v>-1014.17</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>73080.571797</v>
+        <v>73080.571796999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.300159</v>
+        <v>20.300159000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1970.740000</v>
+        <v>1970.74</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1548.350000</v>
+        <v>-1548.35</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>72907.413467</v>
+        <v>72907.413467000006</v>
       </c>
       <c r="B13" s="1">
-        <v>20.252059</v>
+        <v>20.252058999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>903.328000</v>
+        <v>903.32799999999997</v>
       </c>
       <c r="D13" s="1">
-        <v>-189.176000</v>
+        <v>-189.17599999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>72917.863194</v>
+        <v>72917.863194000005</v>
       </c>
       <c r="G13" s="1">
-        <v>20.254962</v>
+        <v>20.254961999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>919.420000</v>
+        <v>919.42</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.349000</v>
+        <v>-161.34899999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>72928.649215</v>
+        <v>72928.649214999998</v>
       </c>
       <c r="L13" s="1">
-        <v>20.257958</v>
+        <v>20.257957999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>941.412000</v>
+        <v>941.41200000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.062000</v>
+        <v>-117.062</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>72939.259104</v>
+        <v>72939.259103999997</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.260905</v>
+        <v>20.260905000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>948.164000</v>
+        <v>948.16399999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.603000</v>
+        <v>-102.60299999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>72949.501988</v>
+        <v>72949.501988000004</v>
       </c>
       <c r="V13" s="1">
-        <v>20.263751</v>
+        <v>20.263750999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>955.042000</v>
+        <v>955.04200000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.668500</v>
+        <v>-89.668499999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>72960.007253</v>
+        <v>72960.007253000003</v>
       </c>
       <c r="AA13" s="1">
         <v>20.266669</v>
       </c>
       <c r="AB13" s="1">
-        <v>962.775000</v>
+        <v>962.77499999999998</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.294500</v>
+        <v>-80.294499999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>72970.180696</v>
+        <v>72970.180695999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.269495</v>
+        <v>20.269494999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.028000</v>
+        <v>968.02800000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.070700</v>
+        <v>-80.070700000000002</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>72980.746473</v>
+        <v>72980.746473000007</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.272430</v>
+        <v>20.27243</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.176000</v>
+        <v>976.17600000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.637000</v>
+        <v>-87.637</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>72991.230909</v>
+        <v>72991.230909000005</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.275342</v>
+        <v>20.275341999999998</v>
       </c>
       <c r="AQ13" s="1">
-        <v>985.509000</v>
+        <v>985.50900000000001</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.364000</v>
+        <v>-102.364</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>73001.986653</v>
       </c>
       <c r="AU13" s="1">
-        <v>20.278330</v>
+        <v>20.27833</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.009000</v>
+        <v>997.00900000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.625000</v>
+        <v>-123.625</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>73012.992880</v>
+        <v>73012.992880000005</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.281387</v>
+        <v>20.281386999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1006.700000</v>
+        <v>1006.7</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.202000</v>
+        <v>-142.202</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>73023.910321</v>
+        <v>73023.910321000003</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.284420</v>
+        <v>20.284420000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG13" s="1">
-        <v>-225.972000</v>
+        <v>-225.97200000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>73035.091138</v>
+        <v>73035.091138000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.287525</v>
+        <v>20.287524999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1131.620000</v>
+        <v>1131.6199999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.920000</v>
+        <v>-359.92</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>73046.907826</v>
+        <v>73046.907825999995</v>
       </c>
       <c r="BO13" s="1">
-        <v>20.290808</v>
+        <v>20.290807999999998</v>
       </c>
       <c r="BP13" s="1">
-        <v>1262.450000</v>
+        <v>1262.45</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-566.009000</v>
+        <v>-566.00900000000001</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>73057.865444</v>
+        <v>73057.865443999995</v>
       </c>
       <c r="BT13" s="1">
-        <v>20.293852</v>
+        <v>20.293852000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.810000</v>
+        <v>1408.81</v>
       </c>
       <c r="BV13" s="1">
-        <v>-785.187000</v>
+        <v>-785.18700000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>73069.021462</v>
+        <v>73069.021462000004</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.296950</v>
+        <v>20.296949999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1568.510000</v>
+        <v>1568.51</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1014.190000</v>
+        <v>-1014.19</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>73081.110454</v>
+        <v>73081.110453999994</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.300308</v>
+        <v>20.300308000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1969.090000</v>
+        <v>1969.09</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1547.400000</v>
+        <v>-1547.4</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>72908.078634</v>
+        <v>72908.078634000005</v>
       </c>
       <c r="B14" s="1">
-        <v>20.252244</v>
+        <v>20.252244000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>903.327000</v>
+        <v>903.327</v>
       </c>
       <c r="D14" s="1">
-        <v>-189.142000</v>
+        <v>-189.142</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>72918.525837</v>
+        <v>72918.525836999994</v>
       </c>
       <c r="G14" s="1">
         <v>20.255146</v>
       </c>
       <c r="H14" s="1">
-        <v>919.433000</v>
+        <v>919.43299999999999</v>
       </c>
       <c r="I14" s="1">
-        <v>-161.310000</v>
+        <v>-161.31</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>72929.035071</v>
+        <v>72929.035071000006</v>
       </c>
       <c r="L14" s="1">
-        <v>20.258065</v>
+        <v>20.258064999999998</v>
       </c>
       <c r="M14" s="1">
-        <v>941.343000</v>
+        <v>941.34299999999996</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.105000</v>
+        <v>-117.105</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>72939.611264</v>
+        <v>72939.611264000006</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.261003</v>
+        <v>20.261002999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>948.165000</v>
+        <v>948.16499999999996</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.550000</v>
+        <v>-102.55</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>72949.845219</v>
+        <v>72949.845218999995</v>
       </c>
       <c r="V14" s="1">
-        <v>20.263846</v>
+        <v>20.263846000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>955.096000</v>
+        <v>955.096</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.677600</v>
+        <v>-89.677599999999998</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>72960.355941</v>
+        <v>72960.355941000002</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.266766</v>
+        <v>20.266766000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>962.776000</v>
+        <v>962.77599999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.293600</v>
+        <v>-80.293599999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>72970.549719</v>
+        <v>72970.549719000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.269597</v>
+        <v>20.269597000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>967.779000</v>
+        <v>967.779</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.927600</v>
+        <v>-79.927599999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>72981.174554</v>
+        <v>72981.174553999997</v>
       </c>
       <c r="AK14" s="1">
         <v>20.272548</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.183000</v>
+        <v>976.18299999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.594600</v>
+        <v>-87.5946</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>72991.522090</v>
+        <v>72991.522089999999</v>
       </c>
       <c r="AP14" s="1">
         <v>20.275423</v>
       </c>
       <c r="AQ14" s="1">
-        <v>985.501000</v>
+        <v>985.50099999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.340000</v>
+        <v>-102.34</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>73002.282765</v>
+        <v>73002.282764999996</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.278412</v>
+        <v>20.278411999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.002000</v>
+        <v>997.00199999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.621000</v>
+        <v>-123.621</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>73013.351488</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.281487</v>
+        <v>20.281486999999998</v>
       </c>
       <c r="BA14" s="1">
-        <v>1006.690000</v>
+        <v>1006.69</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.187000</v>
+        <v>-142.18700000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>73024.270912</v>
+        <v>73024.270912000007</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.284520</v>
+        <v>20.284520000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.180000</v>
+        <v>1052.18</v>
       </c>
       <c r="BG14" s="1">
-        <v>-225.980000</v>
+        <v>-225.98</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>73035.465617</v>
+        <v>73035.465616999994</v>
       </c>
       <c r="BJ14" s="1">
-        <v>20.287629</v>
+        <v>20.287628999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1131.650000</v>
+        <v>1131.6500000000001</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.879000</v>
+        <v>-359.87900000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>73047.328930</v>
+        <v>73047.328930000003</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.290925</v>
+        <v>20.290925000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1262.450000</v>
+        <v>1262.45</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-565.994000</v>
+        <v>-565.99400000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>73058.297459</v>
+        <v>73058.297458999994</v>
       </c>
       <c r="BT14" s="1">
         <v>20.293972</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.820000</v>
+        <v>1408.82</v>
       </c>
       <c r="BV14" s="1">
-        <v>-785.176000</v>
+        <v>-785.17600000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>73069.438101</v>
+        <v>73069.438101000007</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.297066</v>
+        <v>20.297066000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1568.610000</v>
+        <v>1568.61</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1014.100000</v>
+        <v>-1014.1</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>73081.652086</v>
+        <v>73081.652086000002</v>
       </c>
       <c r="CD14" s="1">
         <v>20.300459</v>
       </c>
       <c r="CE14" s="1">
-        <v>1969.310000</v>
+        <v>1969.31</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1549.030000</v>
+        <v>-1549.03</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>72908.439691</v>
+        <v>72908.439691000007</v>
       </c>
       <c r="B15" s="1">
-        <v>20.252344</v>
+        <v>20.252344000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>903.314000</v>
+        <v>903.31399999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-189.256000</v>
+        <v>-189.256</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>72918.896348</v>
+        <v>72918.896347999995</v>
       </c>
       <c r="G15" s="1">
-        <v>20.255249</v>
+        <v>20.255248999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>919.418000</v>
+        <v>919.41800000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-161.178000</v>
+        <v>-161.178</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>72929.383262</v>
+        <v>72929.383262000003</v>
       </c>
       <c r="L15" s="1">
-        <v>20.258162</v>
+        <v>20.258161999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>941.412000</v>
+        <v>941.41200000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-116.986000</v>
+        <v>-116.986</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>72939.961439</v>
+        <v>72939.961439000006</v>
       </c>
       <c r="Q15" s="1">
-        <v>20.261100</v>
+        <v>20.261099999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>948.175000</v>
+        <v>948.17499999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.573000</v>
+        <v>-102.57299999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>72950.193906</v>
       </c>
       <c r="V15" s="1">
-        <v>20.263943</v>
+        <v>20.263943000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>955.201000</v>
+        <v>955.20100000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.588400</v>
+        <v>-89.588399999999993</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>72960.783033</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.266884</v>
+        <v>20.266884000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>962.703000</v>
+        <v>962.70299999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.236100</v>
+        <v>-80.236099999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>72971.241142</v>
+        <v>72971.241141999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.269789</v>
+        <v>20.269788999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.003000</v>
+        <v>968.00300000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.988600</v>
+        <v>-79.988600000000005</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>72981.448312</v>
+        <v>72981.448311999993</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.272625</v>
+        <v>20.272625000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.193000</v>
+        <v>976.19299999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.589900</v>
+        <v>-87.5899</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>72991.882651</v>
+        <v>72991.882651000007</v>
       </c>
       <c r="AP15" s="1">
         <v>20.275523</v>
       </c>
       <c r="AQ15" s="1">
-        <v>985.513000</v>
+        <v>985.51300000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.339000</v>
+        <v>-102.339</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>73002.646334</v>
+        <v>73002.646334000005</v>
       </c>
       <c r="AU15" s="1">
         <v>20.278513</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.999000</v>
+        <v>996.99900000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.645000</v>
+        <v>-123.645</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>73013.711087</v>
+        <v>73013.711087000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>20.281586</v>
+        <v>20.281586000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1006.670000</v>
+        <v>1006.67</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.192000</v>
+        <v>-142.19200000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>73024.993087</v>
+        <v>73024.993086999995</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.284720</v>
+        <v>20.28472</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.140000</v>
+        <v>1052.1400000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-225.980000</v>
+        <v>-225.98</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>73036.216065</v>
+        <v>73036.216065000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.287838</v>
+        <v>20.287838000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1131.580000</v>
+        <v>1131.58</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.840000</v>
+        <v>-359.84</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>73047.725767</v>
+        <v>73047.725766999996</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.291035</v>
+        <v>20.291035000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1262.460000</v>
+        <v>1262.46</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-565.990000</v>
+        <v>-565.99</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>73058.705170</v>
+        <v>73058.705170000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>20.294085</v>
+        <v>20.294084999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.870000</v>
+        <v>1408.87</v>
       </c>
       <c r="BV15" s="1">
-        <v>-785.250000</v>
+        <v>-785.25</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>73070.192019</v>
+        <v>73070.192018999995</v>
       </c>
       <c r="BY15" s="1">
         <v>20.297276</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1568.610000</v>
+        <v>1568.61</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1014.300000</v>
+        <v>-1014.3</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>73082.508181</v>
+        <v>73082.508180999997</v>
       </c>
       <c r="CD15" s="1">
         <v>20.300697</v>
       </c>
       <c r="CE15" s="1">
-        <v>1968.830000</v>
+        <v>1968.83</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1547.770000</v>
+        <v>-1547.77</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>72908.783416</v>
+        <v>72908.783416000006</v>
       </c>
       <c r="B16" s="1">
-        <v>20.252440</v>
+        <v>20.25244</v>
       </c>
       <c r="C16" s="1">
-        <v>903.368000</v>
+        <v>903.36800000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-189.316000</v>
+        <v>-189.316</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>72919.242567</v>
+        <v>72919.242566999994</v>
       </c>
       <c r="G16" s="1">
-        <v>20.255345</v>
+        <v>20.255344999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>919.168000</v>
+        <v>919.16800000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-161.486000</v>
+        <v>-161.48599999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>72929.734925</v>
+        <v>72929.734924999997</v>
       </c>
       <c r="L16" s="1">
-        <v>20.258260</v>
+        <v>20.25826</v>
       </c>
       <c r="M16" s="1">
-        <v>941.463000</v>
+        <v>941.46299999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-116.974000</v>
+        <v>-116.974</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>72940.397951</v>
+        <v>72940.397951000006</v>
       </c>
       <c r="Q16" s="1">
         <v>20.261222</v>
       </c>
       <c r="R16" s="1">
-        <v>948.180000</v>
+        <v>948.18</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.580000</v>
+        <v>-102.58</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>72950.612722</v>
+        <v>72950.612722000005</v>
       </c>
       <c r="V16" s="1">
         <v>20.264059</v>
       </c>
       <c r="W16" s="1">
-        <v>955.133000</v>
+        <v>955.13300000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.570900</v>
+        <v>-89.570899999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>72961.062741</v>
+        <v>72961.062741000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.266962</v>
+        <v>20.266961999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>962.773000</v>
+        <v>962.77300000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.406400</v>
+        <v>-80.406400000000005</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>72971.580935</v>
+        <v>72971.580935000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.269884</v>
+        <v>20.269884000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>967.964000</v>
+        <v>967.96400000000006</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.960300</v>
+        <v>-79.960300000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>72981.799976</v>
+        <v>72981.799975999995</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.272722</v>
+        <v>20.272722000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.165000</v>
+        <v>976.16499999999996</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.608600</v>
+        <v>-87.608599999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>72992.241258</v>
+        <v>72992.241257999995</v>
       </c>
       <c r="AP16" s="1">
         <v>20.275623</v>
       </c>
       <c r="AQ16" s="1">
-        <v>985.517000</v>
+        <v>985.51700000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.330000</v>
+        <v>-102.33</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>73003.012380</v>
+        <v>73003.01238</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.278615</v>
+        <v>20.278614999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.990000</v>
+        <v>996.99</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.637000</v>
+        <v>-123.637</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>73014.429831</v>
+        <v>73014.429831000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>20.281786</v>
       </c>
       <c r="BA16" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.173000</v>
+        <v>-142.173</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>73025.382446</v>
+        <v>73025.382446000003</v>
       </c>
       <c r="BE16" s="1">
-        <v>20.284828</v>
+        <v>20.284828000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-225.980000</v>
+        <v>-225.98</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>73036.593024</v>
+        <v>73036.593024000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.287943</v>
+        <v>20.287942999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1131.660000</v>
+        <v>1131.6600000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.819000</v>
+        <v>-359.81900000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>73048.146338</v>
+        <v>73048.146338000006</v>
       </c>
       <c r="BO16" s="1">
         <v>20.291152</v>
       </c>
       <c r="BP16" s="1">
-        <v>1262.440000</v>
+        <v>1262.44</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-565.960000</v>
+        <v>-565.96</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>73059.457629</v>
+        <v>73059.457628999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.294294</v>
+        <v>20.294294000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.860000</v>
+        <v>1408.86</v>
       </c>
       <c r="BV16" s="1">
-        <v>-785.252000</v>
+        <v>-785.25199999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>73070.314035</v>
+        <v>73070.314035000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.297309</v>
+        <v>20.297308999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1568.550000</v>
+        <v>1568.55</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1014.230000</v>
+        <v>-1014.23</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>73082.728404</v>
+        <v>73082.728403999994</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.300758</v>
+        <v>20.300757999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1969.010000</v>
+        <v>1969.01</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1547.400000</v>
+        <v>-1547.4</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>72909.125656</v>
+        <v>72909.125656000004</v>
       </c>
       <c r="B17" s="1">
-        <v>20.252535</v>
+        <v>20.252535000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>903.285000</v>
+        <v>903.28499999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-189.304000</v>
+        <v>-189.304</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>72919.585291</v>
+        <v>72919.585290999996</v>
       </c>
       <c r="G17" s="1">
-        <v>20.255440</v>
+        <v>20.25544</v>
       </c>
       <c r="H17" s="1">
-        <v>919.403000</v>
+        <v>919.40300000000002</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.260000</v>
+        <v>-161.26</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>72930.173388</v>
+        <v>72930.173387999996</v>
       </c>
       <c r="L17" s="1">
         <v>20.258381</v>
       </c>
       <c r="M17" s="1">
-        <v>941.396000</v>
+        <v>941.39599999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.039000</v>
+        <v>-117.039</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>72940.664270</v>
+        <v>72940.664269999994</v>
       </c>
       <c r="Q17" s="1">
-        <v>20.261296</v>
+        <v>20.261296000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>948.162000</v>
+        <v>948.16200000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.619000</v>
+        <v>-102.619</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>72950.899217</v>
+        <v>72950.899216999998</v>
       </c>
       <c r="V17" s="1">
         <v>20.264139</v>
       </c>
       <c r="W17" s="1">
-        <v>955.134000</v>
+        <v>955.13400000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.490000</v>
+        <v>-89.49</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>72961.412947</v>
+        <v>72961.412947000004</v>
       </c>
       <c r="AA17" s="1">
         <v>20.267059</v>
       </c>
       <c r="AB17" s="1">
-        <v>962.827000</v>
+        <v>962.827</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.372400</v>
+        <v>-80.372399999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>72971.923637</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.269979</v>
+        <v>20.269978999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>967.980000</v>
+        <v>967.98</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.998800</v>
+        <v>-79.998800000000003</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>72982.147176</v>
+        <v>72982.147175999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>20.272819</v>
+        <v>20.272818999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.162000</v>
+        <v>976.16200000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.603100</v>
+        <v>-87.603099999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>72992.962937</v>
+        <v>72992.962937000004</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.275823</v>
+        <v>20.275822999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>985.502000</v>
+        <v>985.50199999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.357000</v>
+        <v>-102.357</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>73003.745964</v>
+        <v>73003.745964000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>20.278818</v>
+        <v>20.278818000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.006000</v>
+        <v>997.00599999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.647000</v>
+        <v>-123.64700000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>73014.786413</v>
+        <v>73014.786412999994</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.281885</v>
+        <v>20.281884999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1006.700000</v>
+        <v>1006.7</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.171000</v>
+        <v>-142.17099999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>73025.742046</v>
+        <v>73025.742045999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.284928</v>
+        <v>20.284928000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG17" s="1">
-        <v>-225.975000</v>
+        <v>-225.97499999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>73037.285439</v>
+        <v>73037.285438999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>20.288135</v>
       </c>
       <c r="BK17" s="1">
-        <v>1131.600000</v>
+        <v>1131.5999999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.832000</v>
+        <v>-359.83199999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>73048.853146</v>
+        <v>73048.853145999994</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.291348</v>
+        <v>20.291347999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1262.470000</v>
+        <v>1262.47</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-565.987000</v>
+        <v>-565.98699999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>73059.567219</v>
+        <v>73059.567219000004</v>
       </c>
       <c r="BT17" s="1">
         <v>20.294324</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.880000</v>
+        <v>1408.88</v>
       </c>
       <c r="BV17" s="1">
-        <v>-785.215000</v>
+        <v>-785.21500000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>73070.753490</v>
+        <v>73070.753490000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.297432</v>
+        <v>20.297432000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1568.520000</v>
+        <v>1568.52</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1014.220000</v>
+        <v>-1014.22</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>73083.250195</v>
+        <v>73083.250195000001</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.300903</v>
+        <v>20.300903000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1969.050000</v>
+        <v>1969.05</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1548.920000</v>
+        <v>-1548.92</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>72909.563656</v>
+        <v>72909.563655999998</v>
       </c>
       <c r="B18" s="1">
-        <v>20.252657</v>
+        <v>20.252656999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>903.120000</v>
+        <v>903.12</v>
       </c>
       <c r="D18" s="1">
-        <v>-189.467000</v>
+        <v>-189.46700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>72920.018299</v>
+        <v>72920.018299000003</v>
       </c>
       <c r="G18" s="1">
         <v>20.255561</v>
       </c>
       <c r="H18" s="1">
-        <v>919.411000</v>
+        <v>919.41099999999994</v>
       </c>
       <c r="I18" s="1">
-        <v>-161.287000</v>
+        <v>-161.28700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>72930.436801</v>
+        <v>72930.436801000003</v>
       </c>
       <c r="L18" s="1">
-        <v>20.258455</v>
+        <v>20.258455000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>941.395000</v>
+        <v>941.39499999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.099000</v>
+        <v>-117.099</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>72941.012958</v>
+        <v>72941.012958000007</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.261392</v>
+        <v>20.261392000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>948.144000</v>
+        <v>948.14400000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.622000</v>
+        <v>-102.622</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>72951.241985</v>
+        <v>72951.241985000001</v>
       </c>
       <c r="V18" s="1">
-        <v>20.264234</v>
+        <v>20.264233999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>955.129000</v>
+        <v>955.12900000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.459400</v>
+        <v>-89.459400000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>72961.762099</v>
@@ -4668,1827 +5084,1827 @@
         <v>20.267156</v>
       </c>
       <c r="AB18" s="1">
-        <v>962.752000</v>
+        <v>962.75199999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.337200</v>
+        <v>-80.337199999999996</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>72972.610101</v>
+        <v>72972.610100999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.270169</v>
+        <v>20.270168999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>967.871000</v>
+        <v>967.87099999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.029100</v>
+        <v>-80.0291</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>72982.842567</v>
       </c>
       <c r="AK18" s="1">
-        <v>20.273012</v>
+        <v>20.273012000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.167000</v>
+        <v>976.16700000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.588200</v>
+        <v>-87.588200000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>72993.350313</v>
+        <v>72993.350313000003</v>
       </c>
       <c r="AP18" s="1">
         <v>20.275931</v>
       </c>
       <c r="AQ18" s="1">
-        <v>985.509000</v>
+        <v>985.50900000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.353000</v>
+        <v>-102.35299999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>73004.128876</v>
+        <v>73004.128876000002</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.278925</v>
+        <v>20.278925000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.991000</v>
+        <v>996.99099999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.641000</v>
+        <v>-123.64100000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>73015.144029</v>
+        <v>73015.144029000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.281984</v>
+        <v>20.281984000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1006.670000</v>
+        <v>1006.67</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.176000</v>
+        <v>-142.17599999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>73026.425571</v>
       </c>
       <c r="BE18" s="1">
-        <v>20.285118</v>
+        <v>20.285118000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-225.978000</v>
+        <v>-225.97800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>73037.718448</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.288255</v>
+        <v>20.288254999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1131.690000</v>
+        <v>1131.69</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.844000</v>
+        <v>-359.84399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>73048.978127</v>
+        <v>73048.978126999995</v>
       </c>
       <c r="BO18" s="1">
         <v>20.291383</v>
       </c>
       <c r="BP18" s="1">
-        <v>1262.460000</v>
+        <v>1262.46</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-566.000000</v>
+        <v>-566</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>73060.005681</v>
+        <v>73060.005680999995</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.294446</v>
+        <v>20.294446000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.860000</v>
+        <v>1408.86</v>
       </c>
       <c r="BV18" s="1">
-        <v>-785.207000</v>
+        <v>-785.20699999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>73071.175586</v>
+        <v>73071.175585999998</v>
       </c>
       <c r="BY18" s="1">
         <v>20.297549</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1568.520000</v>
+        <v>1568.52</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1014.100000</v>
+        <v>-1014.1</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>73083.770530</v>
+        <v>73083.770529999994</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.301047</v>
+        <v>20.301047000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1970.590000</v>
+        <v>1970.59</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1548.430000</v>
+        <v>-1548.43</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>72909.821047</v>
+        <v>72909.821047000005</v>
       </c>
       <c r="B19" s="1">
-        <v>20.252728</v>
+        <v>20.252728000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>903.332000</v>
+        <v>903.33199999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-189.390000</v>
+        <v>-189.39</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>72920.278202</v>
+        <v>72920.278202000001</v>
       </c>
       <c r="G19" s="1">
         <v>20.255633</v>
       </c>
       <c r="H19" s="1">
-        <v>919.016000</v>
+        <v>919.01599999999996</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.367000</v>
+        <v>-161.36699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>72930.784957</v>
+        <v>72930.784956999996</v>
       </c>
       <c r="L19" s="1">
-        <v>20.258551</v>
+        <v>20.258551000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>941.318000</v>
+        <v>941.31799999999998</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.048000</v>
+        <v>-117.048</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>72941.360687</v>
+        <v>72941.360686999993</v>
       </c>
       <c r="Q19" s="1">
-        <v>20.261489</v>
+        <v>20.261489000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.210000</v>
+        <v>948.21</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.809000</v>
+        <v>-102.809</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>72951.587168</v>
+        <v>72951.587167999998</v>
       </c>
       <c r="V19" s="1">
-        <v>20.264330</v>
+        <v>20.264330000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>955.129000</v>
+        <v>955.12900000000002</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.466900</v>
+        <v>-89.466899999999995</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>72962.457026</v>
+        <v>72962.457026000004</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.267349</v>
+        <v>20.267348999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>962.762000</v>
+        <v>962.76199999999994</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.385100</v>
+        <v>-80.385099999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>72972.952372</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.270265</v>
+        <v>20.270264999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.004000</v>
+        <v>968.00400000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.869400</v>
+        <v>-79.869399999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>72983.191254</v>
+        <v>72983.191254000005</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.273109</v>
+        <v>20.273109000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.185000</v>
+        <v>976.18499999999995</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.597300</v>
+        <v>-87.597300000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>72993.730745</v>
+        <v>72993.730744999993</v>
       </c>
       <c r="AP19" s="1">
-        <v>20.276036</v>
+        <v>20.276036000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>985.520000</v>
+        <v>985.52</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.340000</v>
+        <v>-102.34</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>73004.805418</v>
+        <v>73004.805418000004</v>
       </c>
       <c r="AU19" s="1">
-        <v>20.279113</v>
+        <v>20.279112999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.005000</v>
+        <v>997.005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.644000</v>
+        <v>-123.64400000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>73015.830029</v>
+        <v>73015.830029000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.282175</v>
+        <v>20.282174999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1006.690000</v>
+        <v>1006.69</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.193000</v>
+        <v>-142.19300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>73026.851629</v>
+        <v>73026.851628999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>20.285237</v>
+        <v>20.285236999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG19" s="1">
-        <v>-225.993000</v>
+        <v>-225.99299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>73038.091935</v>
+        <v>73038.091935000004</v>
       </c>
       <c r="BJ19" s="1">
         <v>20.288359</v>
       </c>
       <c r="BK19" s="1">
-        <v>1131.620000</v>
+        <v>1131.6199999999999</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.878000</v>
+        <v>-359.87799999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>73049.392287</v>
+        <v>73049.392286999995</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.291498</v>
+        <v>20.291498000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1262.420000</v>
+        <v>1262.42</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-566.029000</v>
+        <v>-566.029</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>73060.414882</v>
+        <v>73060.414881999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>20.294560</v>
+        <v>20.294560000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.840000</v>
+        <v>1408.84</v>
       </c>
       <c r="BV19" s="1">
-        <v>-785.283000</v>
+        <v>-785.28300000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>73071.610579</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.297670</v>
+        <v>20.29767</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1568.380000</v>
+        <v>1568.38</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1014.230000</v>
+        <v>-1014.23</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>73084.286866</v>
+        <v>73084.286865999995</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.301191</v>
+        <v>20.301190999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1969.860000</v>
+        <v>1969.86</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1546.790000</v>
+        <v>-1546.79</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>72910.167255</v>
+        <v>72910.167254999993</v>
       </c>
       <c r="B20" s="1">
         <v>20.252824</v>
       </c>
       <c r="C20" s="1">
-        <v>903.234000</v>
+        <v>903.23400000000004</v>
       </c>
       <c r="D20" s="1">
-        <v>-189.398000</v>
+        <v>-189.398</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>72920.624905</v>
+        <v>72920.624905000004</v>
       </c>
       <c r="G20" s="1">
-        <v>20.255729</v>
+        <v>20.255728999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>919.425000</v>
+        <v>919.42499999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-161.158000</v>
+        <v>-161.15799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>72931.128683</v>
+        <v>72931.128683000003</v>
       </c>
       <c r="L20" s="1">
         <v>20.258647</v>
       </c>
       <c r="M20" s="1">
-        <v>941.411000</v>
+        <v>941.41099999999994</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.015000</v>
+        <v>-117.015</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>72942.055549</v>
+        <v>72942.055548999997</v>
       </c>
       <c r="Q20" s="1">
         <v>20.261682</v>
       </c>
       <c r="R20" s="1">
-        <v>948.243000</v>
+        <v>948.24300000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.827000</v>
+        <v>-102.827</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>72952.272175</v>
+        <v>72952.272175000006</v>
       </c>
       <c r="V20" s="1">
-        <v>20.264520</v>
+        <v>20.264520000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>954.996000</v>
+        <v>954.99599999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.536500</v>
+        <v>-89.536500000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>72962.793282</v>
+        <v>72962.793281999999</v>
       </c>
       <c r="AA20" s="1">
         <v>20.267443</v>
       </c>
       <c r="AB20" s="1">
-        <v>962.798000</v>
+        <v>962.798</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.350100</v>
+        <v>-80.350099999999998</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>72973.296099</v>
+        <v>72973.296098999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.270360</v>
+        <v>20.27036</v>
       </c>
       <c r="AG20" s="1">
-        <v>967.983000</v>
+        <v>967.98299999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.913800</v>
+        <v>-79.913799999999995</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>72983.538486</v>
+        <v>72983.538486000005</v>
       </c>
       <c r="AK20" s="1">
-        <v>20.273205</v>
+        <v>20.273205000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.154000</v>
+        <v>976.154</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.573500</v>
+        <v>-87.573499999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>72994.418727</v>
+        <v>72994.418726999997</v>
       </c>
       <c r="AP20" s="1">
-        <v>20.276227</v>
+        <v>20.276226999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>985.497000</v>
+        <v>985.49699999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.316000</v>
+        <v>-102.316</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>73005.222090</v>
+        <v>73005.222089999996</v>
       </c>
       <c r="AU20" s="1">
         <v>20.279228</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.971000</v>
+        <v>996.971</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.637000</v>
+        <v>-123.637</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>73016.221835</v>
+        <v>73016.221835000004</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.282284</v>
+        <v>20.282284000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.195000</v>
+        <v>-142.19499999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>73027.218172</v>
+        <v>73027.218171999994</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.285338</v>
+        <v>20.285337999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG20" s="1">
-        <v>-225.984000</v>
+        <v>-225.98400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>73038.467406</v>
+        <v>73038.467405999996</v>
       </c>
       <c r="BJ20" s="1">
         <v>20.288463</v>
       </c>
       <c r="BK20" s="1">
-        <v>1131.610000</v>
+        <v>1131.6099999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.803000</v>
+        <v>-359.803</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>73049.789120</v>
+        <v>73049.789120000001</v>
       </c>
       <c r="BO20" s="1">
         <v>20.291608</v>
       </c>
       <c r="BP20" s="1">
-        <v>1262.460000</v>
+        <v>1262.46</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-565.992000</v>
+        <v>-565.99199999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>73060.847392</v>
+        <v>73060.847391999996</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.294680</v>
+        <v>20.29468</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.850000</v>
+        <v>1408.85</v>
       </c>
       <c r="BV20" s="1">
-        <v>-785.156000</v>
+        <v>-785.15599999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>73072.022257</v>
+        <v>73072.022257000004</v>
       </c>
       <c r="BY20" s="1">
         <v>20.297784</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1568.570000</v>
+        <v>1568.57</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1014.310000</v>
+        <v>-1014.31</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>73084.805648</v>
+        <v>73084.805647999994</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.301335</v>
+        <v>20.301335000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>1970.580000</v>
+        <v>1970.58</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1547.640000</v>
+        <v>-1547.64</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>72910.508535</v>
+        <v>72910.508535000001</v>
       </c>
       <c r="B21" s="1">
-        <v>20.252919</v>
+        <v>20.252918999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>903.342000</v>
+        <v>903.34199999999998</v>
       </c>
       <c r="D21" s="1">
-        <v>-189.362000</v>
+        <v>-189.36199999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>72920.972105</v>
+        <v>72920.972104999993</v>
       </c>
       <c r="G21" s="1">
-        <v>20.255826</v>
+        <v>20.255825999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>919.329000</v>
+        <v>919.32899999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-160.989000</v>
+        <v>-160.989</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>72931.820603</v>
       </c>
       <c r="L21" s="1">
-        <v>20.258839</v>
+        <v>20.258838999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>941.290000</v>
+        <v>941.29</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.138000</v>
+        <v>-117.13800000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>72942.406220</v>
+        <v>72942.406220000004</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.261780</v>
+        <v>20.261780000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>948.282000</v>
+        <v>948.28200000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.823000</v>
+        <v>-102.82299999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>72952.616368</v>
+        <v>72952.616368000003</v>
       </c>
       <c r="V21" s="1">
         <v>20.264616</v>
       </c>
       <c r="W21" s="1">
-        <v>955.086000</v>
+        <v>955.08600000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.630000</v>
+        <v>-89.63</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>72963.153873</v>
+        <v>72963.153873000003</v>
       </c>
       <c r="AA21" s="1">
         <v>20.267543</v>
       </c>
       <c r="AB21" s="1">
-        <v>962.756000</v>
+        <v>962.75599999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.325000</v>
+        <v>-80.325000000000003</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>72973.961731</v>
+        <v>72973.961731000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.270545</v>
+        <v>20.270544999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.140000</v>
+        <v>968.14</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.947600</v>
+        <v>-79.947599999999994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>72984.209047</v>
+        <v>72984.209046999997</v>
       </c>
       <c r="AK21" s="1">
         <v>20.273391</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.175000</v>
+        <v>976.17499999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.565500</v>
+        <v>-87.5655</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>72994.821943</v>
+        <v>72994.821943000003</v>
       </c>
       <c r="AP21" s="1">
         <v>20.276339</v>
       </c>
       <c r="AQ21" s="1">
-        <v>985.513000</v>
+        <v>985.51300000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.335000</v>
+        <v>-102.33499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>73005.616378</v>
+        <v>73005.616378000006</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.279338</v>
+        <v>20.279337999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.997000</v>
+        <v>996.99699999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.652000</v>
+        <v>-123.652</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>73016.581932</v>
+        <v>73016.581932000001</v>
       </c>
       <c r="AZ21" s="1">
         <v>20.282384</v>
       </c>
       <c r="BA21" s="1">
-        <v>1006.690000</v>
+        <v>1006.69</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.196000</v>
+        <v>-142.196</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>73027.578765</v>
+        <v>73027.578764999998</v>
       </c>
       <c r="BE21" s="1">
         <v>20.285439</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG21" s="1">
-        <v>-225.959000</v>
+        <v>-225.959</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>73038.904768</v>
+        <v>73038.904767999993</v>
       </c>
       <c r="BJ21" s="1">
-        <v>20.288585</v>
+        <v>20.288585000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1131.670000</v>
+        <v>1131.67</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.865000</v>
+        <v>-359.86500000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>73050.225071</v>
+        <v>73050.225070999993</v>
       </c>
       <c r="BO21" s="1">
         <v>20.291729</v>
       </c>
       <c r="BP21" s="1">
-        <v>1262.450000</v>
+        <v>1262.45</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-566.007000</v>
+        <v>-566.00699999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>73061.274447</v>
+        <v>73061.274447000003</v>
       </c>
       <c r="BT21" s="1">
         <v>20.294798</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.860000</v>
+        <v>1408.86</v>
       </c>
       <c r="BV21" s="1">
-        <v>-785.297000</v>
+        <v>-785.29700000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>73072.438929</v>
+        <v>73072.438928999996</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.297900</v>
+        <v>20.297899999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1568.490000</v>
+        <v>1568.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1014.230000</v>
+        <v>-1014.23</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>73085.357696</v>
+        <v>73085.357696000006</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.301488</v>
+        <v>20.301487999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1970.520000</v>
+        <v>1970.52</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1548.750000</v>
+        <v>-1548.75</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>72911.190502</v>
+        <v>72911.190501999998</v>
       </c>
       <c r="B22" s="1">
-        <v>20.253108</v>
+        <v>20.253108000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>903.337000</v>
+        <v>903.33699999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-189.257000</v>
+        <v>-189.25700000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>72921.694777</v>
+        <v>72921.694776999997</v>
       </c>
       <c r="G22" s="1">
-        <v>20.256026</v>
+        <v>20.256025999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>919.395000</v>
+        <v>919.39499999999998</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.660000</v>
+        <v>-161.66</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>72932.167802</v>
+        <v>72932.167801999996</v>
       </c>
       <c r="L22" s="1">
-        <v>20.258936</v>
+        <v>20.258935999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>941.467000</v>
+        <v>941.46699999999998</v>
       </c>
       <c r="N22" s="1">
-        <v>-117.068000</v>
+        <v>-117.068</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>72942.755404</v>
+        <v>72942.755403999996</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.261877</v>
+        <v>20.261876999999998</v>
       </c>
       <c r="R22" s="1">
-        <v>948.303000</v>
+        <v>948.303</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.818000</v>
+        <v>-102.818</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>72952.960126</v>
+        <v>72952.960126000005</v>
       </c>
       <c r="V22" s="1">
-        <v>20.264711</v>
+        <v>20.264710999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>955.127000</v>
+        <v>955.12699999999995</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.556800</v>
+        <v>-89.556799999999996</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>72963.814581</v>
+        <v>72963.814580999999</v>
       </c>
       <c r="AA22" s="1">
         <v>20.267726</v>
       </c>
       <c r="AB22" s="1">
-        <v>962.749000</v>
+        <v>962.74900000000002</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.270000</v>
+        <v>-80.27</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>72974.326259</v>
+        <v>72974.326258999994</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.270646</v>
+        <v>20.270645999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.071000</v>
+        <v>968.07100000000003</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.804500</v>
+        <v>-79.804500000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>72984.584517</v>
+        <v>72984.584516999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.273496</v>
+        <v>20.273496000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.161000</v>
+        <v>976.16099999999994</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.619500</v>
+        <v>-87.619500000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>72995.202374</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.276445</v>
+        <v>20.276444999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>985.512000</v>
+        <v>985.51199999999994</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.333000</v>
+        <v>-102.333</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>73005.978457</v>
+        <v>73005.978457000005</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.279438</v>
+        <v>20.279437999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.006000</v>
+        <v>997.00599999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.647000</v>
+        <v>-123.64700000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>73016.938585</v>
+        <v>73016.938584999996</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.282483</v>
+        <v>20.282482999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.185000</v>
+        <v>-142.185</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>73028.012235</v>
+        <v>73028.012235000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.285559</v>
+        <v>20.285558999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.160000</v>
+        <v>1052.1600000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-225.968000</v>
+        <v>-225.96799999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>73039.224332</v>
+        <v>73039.224331999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>20.288673</v>
+        <v>20.288672999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1131.640000</v>
+        <v>1131.6400000000001</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.884000</v>
+        <v>-359.88400000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>73050.606030</v>
+        <v>73050.606029999995</v>
       </c>
       <c r="BO22" s="1">
-        <v>20.291835</v>
+        <v>20.291834999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1262.480000</v>
+        <v>1262.48</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-565.990000</v>
+        <v>-565.99</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>73061.690126</v>
+        <v>73061.690126000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.294914</v>
+        <v>20.294913999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.870000</v>
+        <v>1408.87</v>
       </c>
       <c r="BV22" s="1">
-        <v>-785.283000</v>
+        <v>-785.28300000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>73072.888800</v>
+        <v>73072.888800000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.298025</v>
+        <v>20.298024999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1568.510000</v>
+        <v>1568.51</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1014.300000</v>
+        <v>-1014.3</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>73086.226686</v>
+        <v>73086.226685999995</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.301730</v>
+        <v>20.301729999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1970.130000</v>
+        <v>1970.13</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1547.040000</v>
+        <v>-1547.04</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>72911.533735</v>
+        <v>72911.533735000005</v>
       </c>
       <c r="B23" s="1">
         <v>20.253204</v>
       </c>
       <c r="C23" s="1">
-        <v>903.263000</v>
+        <v>903.26300000000003</v>
       </c>
       <c r="D23" s="1">
-        <v>-189.128000</v>
+        <v>-189.12799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>72922.023624</v>
+        <v>72922.023623999994</v>
       </c>
       <c r="G23" s="1">
-        <v>20.256118</v>
+        <v>20.256118000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>919.754000</v>
+        <v>919.75400000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-160.996000</v>
+        <v>-160.99600000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>72932.514297</v>
+        <v>72932.514297000002</v>
       </c>
       <c r="L23" s="1">
-        <v>20.259032</v>
+        <v>20.259032000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>941.277000</v>
+        <v>941.27700000000004</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.116000</v>
+        <v>-117.116</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>72943.414091</v>
+        <v>72943.414090999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.262059</v>
+        <v>20.262059000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>948.223000</v>
+        <v>948.22299999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.844000</v>
+        <v>-102.84399999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>72953.642093</v>
+        <v>72953.642093000002</v>
       </c>
       <c r="V23" s="1">
-        <v>20.264901</v>
+        <v>20.264900999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>955.104000</v>
+        <v>955.10400000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.596100</v>
+        <v>-89.596100000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>72964.201425</v>
+        <v>72964.201425000007</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.267834</v>
+        <v>20.267834000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>962.681000</v>
+        <v>962.68100000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.375000</v>
+        <v>-80.375</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>72974.669490</v>
+        <v>72974.66949</v>
       </c>
       <c r="AF23" s="1">
-        <v>20.270742</v>
+        <v>20.270741999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.036000</v>
+        <v>968.03599999999994</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.910100</v>
+        <v>-79.9101</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>72984.930230</v>
+        <v>72984.930229999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>20.273592</v>
+        <v>20.273592000000001</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.162000</v>
+        <v>976.16200000000003</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.612100</v>
+        <v>-87.612099999999998</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>72995.561974</v>
+        <v>72995.561973999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.276545</v>
+        <v>20.276544999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>985.480000</v>
+        <v>985.48</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.323000</v>
+        <v>-102.32299999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>73006.410473</v>
+        <v>73006.410472999996</v>
       </c>
       <c r="AU23" s="1">
-        <v>20.279558</v>
+        <v>20.279558000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.005000</v>
+        <v>997.005</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.624000</v>
+        <v>-123.624</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>73017.374579</v>
+        <v>73017.374578999996</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.282604</v>
+        <v>20.282603999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1006.690000</v>
+        <v>1006.69</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.188000</v>
+        <v>-142.18799999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>73028.301438</v>
+        <v>73028.301437999995</v>
       </c>
       <c r="BE23" s="1">
         <v>20.285639</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.140000</v>
+        <v>1052.1400000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-225.968000</v>
+        <v>-225.96799999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>73039.623084</v>
+        <v>73039.623084000006</v>
       </c>
       <c r="BJ23" s="1">
         <v>20.288784</v>
       </c>
       <c r="BK23" s="1">
-        <v>1131.610000</v>
+        <v>1131.6099999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.845000</v>
+        <v>-359.84500000000003</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>73051.025117</v>
+        <v>73051.025116999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.291951</v>
+        <v>20.291951000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1262.470000</v>
+        <v>1262.47</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-565.997000</v>
+        <v>-565.99699999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>73062.116190</v>
+        <v>73062.116190000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.295032</v>
+        <v>20.295031999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.830000</v>
+        <v>1408.83</v>
       </c>
       <c r="BV23" s="1">
-        <v>-785.270000</v>
+        <v>-785.27</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>73073.324751</v>
+        <v>73073.324750999993</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.298146</v>
+        <v>20.298145999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1568.520000</v>
+        <v>1568.52</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1014.170000</v>
+        <v>-1014.17</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>73086.412686</v>
+        <v>73086.412685999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.301781</v>
+        <v>20.301780999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>1970.810000</v>
+        <v>1970.81</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1548.400000</v>
+        <v>-1548.4</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>72911.874997</v>
+        <v>72911.874997000006</v>
       </c>
       <c r="B24" s="1">
-        <v>20.253299</v>
+        <v>20.253298999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>903.293000</v>
+        <v>903.29300000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-189.304000</v>
+        <v>-189.304</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>72922.676358</v>
+        <v>72922.676357999997</v>
       </c>
       <c r="G24" s="1">
-        <v>20.256299</v>
+        <v>20.256298999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>919.499000</v>
+        <v>919.49900000000002</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.124000</v>
+        <v>-161.124</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>72933.184136</v>
+        <v>72933.184135999996</v>
       </c>
       <c r="L24" s="1">
-        <v>20.259218</v>
+        <v>20.259218000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>941.393000</v>
+        <v>941.39300000000003</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.130000</v>
+        <v>-117.13</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>72943.804940</v>
+        <v>72943.804940000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>20.262168</v>
+        <v>20.262167999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.255000</v>
+        <v>948.255</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.804000</v>
+        <v>-102.804</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>72954.001693</v>
+        <v>72954.001692999998</v>
       </c>
       <c r="V24" s="1">
-        <v>20.265000</v>
+        <v>20.265000000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>955.180000</v>
+        <v>955.18</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.505900</v>
+        <v>-89.505899999999997</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>72964.548127</v>
+        <v>72964.548127000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.267930</v>
+        <v>20.26793</v>
       </c>
       <c r="AB24" s="1">
-        <v>962.671000</v>
+        <v>962.67100000000005</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.386000</v>
+        <v>-80.385999999999996</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>72975.014742</v>
+        <v>72975.014741999999</v>
       </c>
       <c r="AF24" s="1">
         <v>20.270837</v>
       </c>
       <c r="AG24" s="1">
-        <v>967.993000</v>
+        <v>967.99300000000005</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.917600</v>
+        <v>-79.917599999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>72985.283877</v>
+        <v>72985.283876999994</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.273690</v>
+        <v>20.273689999999998</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.159000</v>
+        <v>976.15899999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.607500</v>
+        <v>-87.607500000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>72995.991052</v>
+        <v>72995.991051999998</v>
       </c>
       <c r="AP24" s="1">
         <v>20.276664</v>
       </c>
       <c r="AQ24" s="1">
-        <v>985.515000</v>
+        <v>985.51499999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.320000</v>
+        <v>-102.32</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>73006.709095</v>
+        <v>73006.709094999998</v>
       </c>
       <c r="AU24" s="1">
-        <v>20.279641</v>
+        <v>20.279641000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.993000</v>
+        <v>996.99300000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.636000</v>
+        <v>-123.636</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>73017.655770</v>
+        <v>73017.655769999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.282682</v>
+        <v>20.282682000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1006.680000</v>
+        <v>1006.68</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.188000</v>
+        <v>-142.18799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>73028.661530</v>
+        <v>73028.661529999998</v>
       </c>
       <c r="BE24" s="1">
         <v>20.285739</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG24" s="1">
-        <v>-225.969000</v>
+        <v>-225.96899999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>73040.002059</v>
+        <v>73040.002059000006</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.288889</v>
+        <v>20.288889000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1131.650000</v>
+        <v>1131.6500000000001</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.873000</v>
+        <v>-359.87299999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>73051.423405</v>
+        <v>73051.423404999994</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.292062</v>
+        <v>20.292062000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1262.420000</v>
+        <v>1262.42</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-565.976000</v>
+        <v>-565.976</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>73062.548702</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.295152</v>
+        <v>20.295152000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.860000</v>
+        <v>1408.86</v>
       </c>
       <c r="BV24" s="1">
-        <v>-785.242000</v>
+        <v>-785.24199999999996</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>73073.732466</v>
+        <v>73073.732466000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.298259</v>
+        <v>20.298259000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1568.560000</v>
+        <v>1568.56</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1014.240000</v>
+        <v>-1014.24</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>73086.940429</v>
+        <v>73086.940428999995</v>
       </c>
       <c r="CD24" s="1">
         <v>20.301928</v>
       </c>
       <c r="CE24" s="1">
-        <v>1970.350000</v>
+        <v>1970.35</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1548.660000</v>
+        <v>-1548.66</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>72912.522757</v>
+        <v>72912.522756999999</v>
       </c>
       <c r="B25" s="1">
-        <v>20.253479</v>
+        <v>20.253478999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>903.249000</v>
+        <v>903.24900000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-189.476000</v>
+        <v>-189.476</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>72923.049391</v>
+        <v>72923.049390999993</v>
       </c>
       <c r="G25" s="1">
-        <v>20.256403</v>
+        <v>20.256402999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>919.367000</v>
+        <v>919.36699999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-161.444000</v>
+        <v>-161.44399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>72933.553160</v>
+        <v>72933.553159999996</v>
       </c>
       <c r="L25" s="1">
-        <v>20.259320</v>
+        <v>20.259319999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>941.324000</v>
+        <v>941.32399999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.098000</v>
+        <v>-117.098</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>72944.148666</v>
+        <v>72944.148665999994</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.262264</v>
+        <v>20.262263999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>948.187000</v>
+        <v>948.18700000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.789000</v>
+        <v>-102.789</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>72954.345773</v>
+        <v>72954.345772999994</v>
       </c>
       <c r="V25" s="1">
         <v>20.265096</v>
       </c>
       <c r="W25" s="1">
-        <v>955.082000</v>
+        <v>955.08199999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.531900</v>
+        <v>-89.531899999999993</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>72964.897839</v>
+        <v>72964.897838999997</v>
       </c>
       <c r="AA25" s="1">
         <v>20.268027</v>
       </c>
       <c r="AB25" s="1">
-        <v>962.698000</v>
+        <v>962.69799999999998</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.291300</v>
+        <v>-80.291300000000007</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>72975.435810</v>
+        <v>72975.435809999995</v>
       </c>
       <c r="AF25" s="1">
         <v>20.270954</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.044000</v>
+        <v>968.04399999999998</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.003900</v>
+        <v>-80.003900000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>72985.702995</v>
@@ -6497,407 +6913,408 @@
         <v>20.273806</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.178000</v>
+        <v>976.178</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.611700</v>
+        <v>-87.611699999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>72996.279694</v>
+        <v>72996.279693999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.276744</v>
+        <v>20.276744000000001</v>
       </c>
       <c r="AQ25" s="1">
-        <v>985.496000</v>
+        <v>985.49599999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.352000</v>
+        <v>-102.352</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>73007.074292</v>
+        <v>73007.074292000005</v>
       </c>
       <c r="AU25" s="1">
         <v>20.279743</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.002000</v>
+        <v>997.00199999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.620000</v>
+        <v>-123.62</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>73018.017385</v>
+        <v>73018.017384999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.282783</v>
+        <v>20.282782999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1006.690000</v>
+        <v>1006.69</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.199000</v>
+        <v>-142.19900000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>73029.023101</v>
+        <v>73029.023100999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.285840</v>
+        <v>20.28584</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.150000</v>
+        <v>1052.1500000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-225.966000</v>
+        <v>-225.96600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>73040.752970</v>
+        <v>73040.752970000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.289098</v>
+        <v>20.289097999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1131.580000</v>
+        <v>1131.58</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.850000</v>
+        <v>-359.85</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>73051.856908</v>
+        <v>73051.856908000002</v>
       </c>
       <c r="BO25" s="1">
         <v>20.292182</v>
       </c>
       <c r="BP25" s="1">
-        <v>1262.480000</v>
+        <v>1262.48</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-565.997000</v>
+        <v>-565.99699999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>73062.958893</v>
+        <v>73062.958893000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.295266</v>
+        <v>20.295266000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.860000</v>
+        <v>1408.86</v>
       </c>
       <c r="BV25" s="1">
-        <v>-785.282000</v>
+        <v>-785.28200000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>73074.182863</v>
+        <v>73074.182862999995</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.298384</v>
+        <v>20.298383999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1568.540000</v>
+        <v>1568.54</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1014.220000</v>
+        <v>-1014.22</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>73087.770765</v>
+        <v>73087.770764999994</v>
       </c>
       <c r="CD25" s="1">
         <v>20.302159</v>
       </c>
       <c r="CE25" s="1">
-        <v>1970.050000</v>
+        <v>1970.05</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1547.300000</v>
+        <v>-1547.3</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>72912.898725</v>
+        <v>72912.898725000006</v>
       </c>
       <c r="B26" s="1">
-        <v>20.253583</v>
+        <v>20.253582999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>903.309000</v>
+        <v>903.30899999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-189.367000</v>
+        <v>-189.36699999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>72923.394566</v>
+        <v>72923.394566000003</v>
       </c>
       <c r="G26" s="1">
-        <v>20.256498</v>
+        <v>20.256498000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>919.339000</v>
+        <v>919.33900000000006</v>
       </c>
       <c r="I26" s="1">
-        <v>-161.190000</v>
+        <v>-161.19</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>72933.898839</v>
+        <v>72933.898839000001</v>
       </c>
       <c r="L26" s="1">
-        <v>20.259416</v>
+        <v>20.259416000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>941.432000</v>
+        <v>941.43200000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-117.088000</v>
+        <v>-117.08799999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>72944.500329</v>
+        <v>72944.500329000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.262361</v>
+        <v>20.262360999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>948.251000</v>
+        <v>948.25099999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.800000</v>
+        <v>-102.8</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>72954.967404</v>
+        <v>72954.967403999995</v>
       </c>
       <c r="V26" s="1">
         <v>20.265269</v>
       </c>
       <c r="W26" s="1">
-        <v>955.096000</v>
+        <v>955.096</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.659800</v>
+        <v>-89.659800000000004</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>72965.334286</v>
+        <v>72965.334285999998</v>
       </c>
       <c r="AA26" s="1">
         <v>20.268148</v>
       </c>
       <c r="AB26" s="1">
-        <v>962.693000</v>
+        <v>962.69299999999998</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.340500</v>
+        <v>-80.340500000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>72975.727457</v>
+        <v>72975.727457000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>20.271035</v>
+        <v>20.271035000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>967.955000</v>
+        <v>967.95500000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.883600</v>
+        <v>-79.883600000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>72985.992905</v>
+        <v>72985.992905000006</v>
       </c>
       <c r="AK26" s="1">
-        <v>20.273887</v>
+        <v>20.273886999999998</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.175000</v>
+        <v>976.17499999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.591300</v>
+        <v>-87.591300000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>72996.642268</v>
+        <v>72996.642267999996</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.276845</v>
+        <v>20.276845000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>985.510000</v>
+        <v>985.51</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.348000</v>
+        <v>-102.348</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>73007.439174</v>
+        <v>73007.439173999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.279844</v>
+        <v>20.279844000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.999000</v>
+        <v>996.99900000000002</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.628000</v>
+        <v>-123.628</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>73018.374480</v>
+        <v>73018.374479999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>20.282882</v>
+        <v>20.282882000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1006.700000</v>
+        <v>1006.7</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.189000</v>
+        <v>-142.18899999999999</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>73029.742810</v>
+        <v>73029.742809999996</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.286040</v>
+        <v>20.28604</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.170000</v>
+        <v>1052.17</v>
       </c>
       <c r="BG26" s="1">
-        <v>-225.964000</v>
+        <v>-225.964</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>73041.124475</v>
+        <v>73041.124475000004</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.289201</v>
+        <v>20.289200999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1131.650000</v>
+        <v>1131.6500000000001</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.795000</v>
+        <v>-359.79500000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>73052.254701</v>
+        <v>73052.254700999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.292293</v>
+        <v>20.292293000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1262.500000</v>
+        <v>1262.5</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-565.979000</v>
+        <v>-565.97900000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>73063.386015</v>
+        <v>73063.386014999996</v>
       </c>
       <c r="BT26" s="1">
         <v>20.295385</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.960000</v>
+        <v>1408.96</v>
       </c>
       <c r="BV26" s="1">
-        <v>-785.246000</v>
+        <v>-785.24599999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>73074.920910</v>
+        <v>73074.920910000001</v>
       </c>
       <c r="BY26" s="1">
         <v>20.298589</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1568.650000</v>
+        <v>1568.65</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1014.210000</v>
+        <v>-1014.21</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>73088.011293</v>
+        <v>73088.011293000003</v>
       </c>
       <c r="CD26" s="1">
         <v>20.302225</v>
       </c>
       <c r="CE26" s="1">
-        <v>1968.880000</v>
+        <v>1968.88</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1547.990000</v>
+        <v>-1547.99</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>